--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/E4C_BOM_3.3.1_231024.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/E4C_BOM_3.3.1_231024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Bomlist-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1751,7 +1751,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21F34180-37B8-1D13-9F00-AA8D4FDB38F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F34180-37B8-1D13-9F00-AA8D4FDB38F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
